--- a/medicine/Mort/Liste_des_cimetières_de_Hong_Kong/Liste_des_cimetières_de_Hong_Kong.xlsx
+++ b/medicine/Mort/Liste_des_cimetières_de_Hong_Kong/Liste_des_cimetières_de_Hong_Kong.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Liste_des_cimeti%C3%A8res_de_Hong_Kong</t>
+          <t>Liste_des_cimetières_de_Hong_Kong</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Liste des cimetières de Hong Kong
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Liste_des_cimeti%C3%A8res_de_Hong_Kong</t>
+          <t>Liste_des_cimetières_de_Hong_Kong</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Île de Hong Kong</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Cimetière permanent chinois d'Aberdeen
 Cimetière permanent chinois du cap Collinson (en)
@@ -524,9 +538,43 @@
 Cimetière bouddhiste de Hong Kong
 Cimetière de Pok Fu Lam Road de l'union des églises chrétiennes de Hong Kong
 Cimetière de guerre de Sai Wan – La plupart des morts de la Seconde Guerre mondiale à Hong Kong et en Asie de l'Est y sont enterrés.
-Cimetière militaire de Stanley – Non seulement l'un des principaux cimetières militaires de Hong Kong, mais aussi l'un des derniers champs de la bataille de Hong Kong de 1941.
-Happy Valley
-Cimetière juif de Happy Valley (en) - Ouvert vers 1855 et racheté par la famille Sasson.
+Cimetière militaire de Stanley – Non seulement l'un des principaux cimetières militaires de Hong Kong, mais aussi l'un des derniers champs de la bataille de Hong Kong de 1941.</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Liste_des_cimetières_de_Hong_Kong</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_cimeti%C3%A8res_de_Hong_Kong</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Île de Hong Kong</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Happy Valley</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Cimetière juif de Happy Valley (en) - Ouvert vers 1855 et racheté par la famille Sasson.
 Cimetière musulman de Happy Valley
 Cimetière hindou de Happy Valley - Ouvert dans les années 1880 et comprend un temple hindou.
 Cimetière de Hong Kong – Le plus ancien cimetière occidental de Hong Kong.
@@ -535,44 +583,13 @@
         </is>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Liste_des_cimeti%C3%A8res_de_Hong_Kong</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Portail:Mort/Articles liés</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Liste_des_cimeti%C3%A8res_de_Hong_Kong</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>Kowloon et New Kowloon</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Cimetière chrétien chinois - District de Kowloon City
-Cimetière catholique de Saint-Raphaël - Cheung Sha Wan (en)</t>
-        </is>
-      </c>
-    </row>
     <row r="5">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Liste_des_cimeti%C3%A8res_de_Hong_Kong</t>
+          <t>Liste_des_cimetières_de_Hong_Kong</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -587,10 +604,45 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>Kowloon et New Kowloon</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Cimetière chrétien chinois - District de Kowloon City
+Cimetière catholique de Saint-Raphaël - Cheung Sha Wan (en)</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Liste_des_cimetières_de_Hong_Kong</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Liste_des_cimeti%C3%A8res_de_Hong_Kong</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>Nouveaux Territoires</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Jardin Gallant (en) - Cimetière des fonctionnaires décédés en service
 Cimetière de Heung Shek
